--- a/統計管制與最佳化方法概論/homework/my_homework/HW6/hw_6.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW6/hw_6.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60258C00-4818-475B-8B28-559C8C4B47D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D07911-DD46-41F3-8508-73DDA7E2B6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{02CB4908-ABFE-49C6-BAC1-55CE80931D27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{02CB4908-ABFE-49C6-BAC1-55CE80931D27}"/>
   </bookViews>
   <sheets>
     <sheet name="第1題" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
+    <sheet name="第2題 修正" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>left</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -168,12 +169,186 @@
     <t>runs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1st number</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>50 trails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>binomial(n=50,p=6/38,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>=0.05)^-1:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>binomial(n=50,p=6/38,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>=0.95)^-1:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>binomial(n=100,p=6/38,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>=0.05)^-1:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>binomial(n=100,p=6/38,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>=0.95)^-1:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 trails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>binomial(n=500,p=6/38,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>=0.05)^-1:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500 trails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>binomial(n=500,p=6/38,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>=0.95)^-1:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,6 +369,20 @@
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="161"/>
     </font>
   </fonts>
   <fills count="2">
@@ -356,22 +545,72 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -718,29 +957,29 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>351</v>
       </c>
@@ -760,7 +999,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>352</v>
       </c>
@@ -781,7 +1020,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>349</v>
       </c>
@@ -803,7 +1042,7 @@
         <v>349.7176470588235</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>354</v>
       </c>
@@ -825,7 +1064,7 @@
         <v>13.51456582633053</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>350</v>
       </c>
@@ -847,7 +1086,7 @@
         <v>3.6762162377001886</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>348</v>
       </c>
@@ -869,7 +1108,7 @@
         <v>1.6631966790489103</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>351</v>
       </c>
@@ -891,7 +1130,7 @@
         <v>-1.6631966790489103</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>350</v>
       </c>
@@ -913,7 +1152,7 @@
         <v>-0.70811000373923771</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>352</v>
       </c>
@@ -935,7 +1174,7 @@
         <v>0.24041863228763977</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>351</v>
       </c>
@@ -951,7 +1190,7 @@
         <v>accept H_0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>351</v>
       </c>
@@ -960,7 +1199,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>351</v>
       </c>
@@ -969,7 +1208,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>348</v>
       </c>
@@ -978,7 +1217,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>353</v>
       </c>
@@ -987,7 +1226,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>351</v>
       </c>
@@ -996,7 +1235,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>352</v>
       </c>
@@ -1005,7 +1244,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>354</v>
       </c>
@@ -1014,7 +1253,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>342</v>
       </c>
@@ -1023,7 +1262,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>347</v>
       </c>
@@ -1032,7 +1271,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>343</v>
       </c>
@@ -1041,7 +1280,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>346</v>
       </c>
@@ -1050,7 +1289,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>346</v>
       </c>
@@ -1059,7 +1298,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>346</v>
       </c>
@@ -1068,7 +1307,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>347</v>
       </c>
@@ -1077,7 +1316,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>346</v>
       </c>
@@ -1086,7 +1325,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>343</v>
       </c>
@@ -1095,7 +1334,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>336</v>
       </c>
@@ -1104,7 +1343,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>344</v>
       </c>
@@ -1113,7 +1352,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>345</v>
       </c>
@@ -1122,7 +1361,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>345</v>
       </c>
@@ -1131,7 +1370,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>344</v>
       </c>
@@ -1140,7 +1379,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>348</v>
       </c>
@@ -1149,7 +1388,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>350</v>
       </c>
@@ -1158,7 +1397,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>345</v>
       </c>
@@ -1167,7 +1406,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>345</v>
       </c>
@@ -1176,7 +1415,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>350</v>
       </c>
@@ -1185,7 +1424,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>342</v>
       </c>
@@ -1194,7 +1433,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>352</v>
       </c>
@@ -1203,7 +1442,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>340</v>
       </c>
@@ -1212,7 +1451,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>347</v>
       </c>
@@ -1221,7 +1460,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>347</v>
       </c>
@@ -1230,7 +1469,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>350</v>
       </c>
@@ -1239,7 +1478,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>347</v>
       </c>
@@ -1248,7 +1487,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>346</v>
       </c>
@@ -1257,7 +1496,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>338</v>
       </c>
@@ -1266,7 +1505,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>347</v>
       </c>
@@ -1275,7 +1514,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>349</v>
       </c>
@@ -1284,7 +1523,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>342</v>
       </c>
@@ -1293,7 +1532,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>342</v>
       </c>
@@ -1302,7 +1541,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>347</v>
       </c>
@@ -1311,7 +1550,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>348</v>
       </c>
@@ -1320,7 +1559,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>353</v>
       </c>
@@ -1329,7 +1568,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>347</v>
       </c>
@@ -1338,7 +1577,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>348</v>
       </c>
@@ -1347,7 +1586,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>348</v>
       </c>
@@ -1356,7 +1595,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>345</v>
       </c>
@@ -1365,7 +1604,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>346</v>
       </c>
@@ -1374,7 +1613,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>346</v>
       </c>
@@ -1383,7 +1622,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>346</v>
       </c>
@@ -1392,7 +1631,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>350</v>
       </c>
@@ -1401,7 +1640,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>350</v>
       </c>
@@ -1410,7 +1649,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>350</v>
       </c>
@@ -1419,7 +1658,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>344</v>
       </c>
@@ -1428,7 +1667,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>348</v>
       </c>
@@ -1437,7 +1676,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>349</v>
       </c>
@@ -1446,7 +1685,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>346</v>
       </c>
@@ -1455,7 +1694,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>347</v>
       </c>
@@ -1464,7 +1703,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>346</v>
       </c>
@@ -1473,7 +1712,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>345</v>
       </c>
@@ -1482,7 +1721,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>349</v>
       </c>
@@ -1491,7 +1730,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>347</v>
       </c>
@@ -1500,7 +1739,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>336</v>
       </c>
@@ -1509,7 +1748,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>346</v>
       </c>
@@ -1518,7 +1757,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>346</v>
       </c>
@@ -1527,7 +1766,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>344</v>
       </c>
@@ -1536,7 +1775,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>346</v>
       </c>
@@ -1545,7 +1784,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>345</v>
       </c>
@@ -1554,7 +1793,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>347</v>
       </c>
@@ -1563,7 +1802,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>348</v>
       </c>
@@ -1572,7 +1811,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>348</v>
       </c>
@@ -1581,7 +1820,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>346</v>
       </c>
@@ -1590,7 +1829,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>347</v>
       </c>
@@ -1599,7 +1838,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>348</v>
       </c>
@@ -1608,7 +1847,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>348</v>
       </c>
@@ -1617,7 +1856,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>346</v>
       </c>
@@ -1626,7 +1865,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
     </row>
   </sheetData>
@@ -1641,38 +1880,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248165E1-7DE5-4BB3-8FA8-FEBD72B33B8C}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
-      <c r="G1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="13"/>
+      <c r="I1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
-      <c r="M1" s="14" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="13"/>
+      <c r="Q1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="15"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="13"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
@@ -1689,40 +1928,44 @@
       <c r="E2" s="6">
         <v>0.36464227527765836</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2">
+        <f>_xlfn.BINOM.INV(50,6/38,0.05)</f>
+        <v>4</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="5" t="str" cm="1">
-        <f t="array" ref="H2:K2">TRANSPOSE(L4:L7)</f>
+      <c r="J2" s="5" t="str" cm="1">
+        <f t="array" ref="J2:M2">TRANSPOSE(N4:N7)</f>
         <v>p_0</v>
       </c>
-      <c r="I2" s="6">
+      <c r="K2" s="6">
         <v>0.15789473684210525</v>
       </c>
-      <c r="J2" s="5" t="str">
+      <c r="L2" s="5" t="str">
         <v>s</v>
       </c>
-      <c r="K2" s="6">
+      <c r="M2" s="6">
         <v>0.36464227527765836</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="5" t="str" cm="1">
-        <f t="array" ref="N2:Q2">TRANSPOSE(R4:R7)</f>
+      <c r="R2" s="5" t="str" cm="1">
+        <f t="array" ref="R2:U2">TRANSPOSE(V4:V7)</f>
         <v>p_0</v>
       </c>
-      <c r="O2" s="6">
+      <c r="S2" s="6">
         <v>0.15789473684210525</v>
       </c>
-      <c r="P2" s="5" t="str">
+      <c r="T2" s="5" t="str">
         <v>s</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="U2" s="6">
         <v>0.36464227527765836</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>50</v>
       </c>
@@ -1739,40 +1982,44 @@
       <c r="E3" s="6">
         <v>-1.6448536269514726</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3">
+        <f>_xlfn.BINOM.INV(50,6/38,0.95)</f>
+        <v>12</v>
+      </c>
+      <c r="I3" s="12">
         <v>100</v>
       </c>
-      <c r="H3" s="5" t="str" cm="1">
-        <f t="array" ref="H3:K3">TRANSPOSE(L8:L11)</f>
+      <c r="J3" s="5" t="str" cm="1">
+        <f t="array" ref="J3:M3">TRANSPOSE(N8:N11)</f>
         <v>z_0.95</v>
       </c>
-      <c r="I3" s="6">
+      <c r="K3" s="6">
         <v>1.6448536269514715</v>
       </c>
-      <c r="J3" s="5" t="str">
+      <c r="L3" s="5" t="str">
         <v>z_0.05</v>
       </c>
-      <c r="K3" s="6">
+      <c r="M3" s="6">
         <v>-1.6448536269514726</v>
       </c>
-      <c r="M3" s="12">
+      <c r="Q3" s="12">
         <v>500</v>
       </c>
-      <c r="N3" s="5" t="str" cm="1">
-        <f t="array" ref="N3:Q3">TRANSPOSE(R8:R11)</f>
+      <c r="R3" s="5" t="str" cm="1">
+        <f t="array" ref="R3:U3">TRANSPOSE(V8:V11)</f>
         <v>z_0.95</v>
       </c>
-      <c r="O3" s="6">
+      <c r="S3" s="6">
         <v>1.6448536269514715</v>
       </c>
-      <c r="P3" s="5" t="str">
+      <c r="T3" s="5" t="str">
         <v>z_0.05</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="U3" s="6">
         <v>-1.6448536269514726</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -1785,50 +2032,50 @@
       <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="M4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="R4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="S4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="T4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="U4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="R4" t="s">
+      <c r="V4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -1851,52 +2098,52 @@
         <f>6/38</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="G5" s="11">
+      <c r="I5" s="11">
         <v>1</v>
       </c>
-      <c r="H5" s="11">
+      <c r="J5" s="11">
         <v>0.16</v>
       </c>
-      <c r="I5" s="11">
-        <f>(H5-$L$5)/($L$7/100^0.5)</f>
+      <c r="K5" s="11">
+        <f>(J5-$N$5)/($N$7/100^0.5)</f>
         <v>5.7735026918962914E-2</v>
       </c>
-      <c r="J5" s="11" t="str">
-        <f>IF(OR(I5&gt;=$L$9,I5&lt;=$L$11),"False","True")</f>
-        <v>True</v>
-      </c>
-      <c r="K5" s="11">
-        <f>IF(I5&gt;=0,(1-_xlfn.NORM.S.DIST(I5,1))*2,_xlfn.NORM.S.DIST(I5,1))</f>
+      <c r="L5" s="11" t="str">
+        <f>IF(OR(K5&gt;=$N$9,K5&lt;=$N$11),"False","True")</f>
+        <v>True</v>
+      </c>
+      <c r="M5" s="11">
+        <f>IF(K5&gt;=0,(1-_xlfn.NORM.S.DIST(K5,1))*2,_xlfn.NORM.S.DIST(K5,1))</f>
         <v>0.95395969277203818</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <f>6/38</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="M5" s="11">
+      <c r="Q5" s="11">
         <v>1</v>
       </c>
-      <c r="N5" s="11">
+      <c r="R5" s="11">
         <v>0.152</v>
       </c>
-      <c r="O5" s="11">
-        <f>(N5-$R$5)/($R$7/500^0.5)</f>
+      <c r="S5" s="11">
+        <f>(R5-$V$5)/($V$7/500^0.5)</f>
         <v>-0.36147844564602533</v>
       </c>
-      <c r="P5" s="11" t="str">
-        <f>IF(OR(O5&gt;=$R$9,O5&lt;=$R$11),"False","True")</f>
-        <v>True</v>
-      </c>
-      <c r="Q5" s="11">
-        <f>IF(O5&gt;=0,(1-_xlfn.NORM.S.DIST(O5,1))*2,_xlfn.NORM.S.DIST(O5,1))</f>
+      <c r="T5" s="11" t="str">
+        <f>IF(OR(S5&gt;=$V$9,S5&lt;=$V$11),"False","True")</f>
+        <v>True</v>
+      </c>
+      <c r="U5" s="11">
+        <f>IF(S5&gt;=0,(1-_xlfn.NORM.S.DIST(S5,1))*2,_xlfn.NORM.S.DIST(S5,1))</f>
         <v>0.35887090756369</v>
       </c>
-      <c r="R5">
+      <c r="V5">
         <f>6/38</f>
         <v>0.15789473684210525</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -1918,50 +2165,50 @@
       <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="11">
+      <c r="I6" s="11">
         <v>2</v>
       </c>
-      <c r="H6" s="11">
+      <c r="J6" s="11">
         <v>0.15</v>
       </c>
-      <c r="I6" s="11">
-        <f t="shared" ref="I6:I42" si="3">(H6-$L$5)/($L$7/100^0.5)</f>
+      <c r="K6" s="11">
+        <f t="shared" ref="K6:K42" si="3">(J6-$N$5)/($N$7/100^0.5)</f>
         <v>-0.21650635094610959</v>
       </c>
-      <c r="J6" s="11" t="str">
-        <f t="shared" ref="J6:J42" si="4">IF(OR(I6&gt;=$L$9,I6&lt;=$L$11),"False","True")</f>
-        <v>True</v>
-      </c>
-      <c r="K6" s="11">
-        <f t="shared" ref="K6:K42" si="5">IF(I6&gt;=0,(1-_xlfn.NORM.S.DIST(I6,1))*2,_xlfn.NORM.S.DIST(I6,1))</f>
+      <c r="L6" s="11" t="str">
+        <f t="shared" ref="L6:L42" si="4">IF(OR(K6&gt;=$N$9,K6&lt;=$N$11),"False","True")</f>
+        <v>True</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" ref="M6:M42" si="5">IF(K6&gt;=0,(1-_xlfn.NORM.S.DIST(K6,1))*2,_xlfn.NORM.S.DIST(K6,1))</f>
         <v>0.41429653760932328</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="11">
+      <c r="Q6" s="11">
         <v>2</v>
       </c>
-      <c r="N6" s="11">
+      <c r="R6" s="11">
         <v>0.16800000000000001</v>
       </c>
-      <c r="O6" s="11">
-        <f t="shared" ref="O6:O42" si="6">(N6-$R$5)/($R$7/500^0.5)</f>
+      <c r="S6" s="11">
+        <f t="shared" ref="S6:S42" si="6">(R6-$V$5)/($V$7/500^0.5)</f>
         <v>0.61967733539318792</v>
       </c>
-      <c r="P6" s="11" t="str">
-        <f t="shared" ref="P6:P42" si="7">IF(OR(O6&gt;=$R$9,O6&lt;=$R$11),"False","True")</f>
-        <v>True</v>
-      </c>
-      <c r="Q6" s="11">
-        <f t="shared" ref="Q6:Q42" si="8">IF(O6&gt;=0,(1-_xlfn.NORM.S.DIST(O6,1))*2,_xlfn.NORM.S.DIST(O6,1))</f>
+      <c r="T6" s="11" t="str">
+        <f t="shared" ref="T6:T42" si="7">IF(OR(S6&gt;=$V$9,S6&lt;=$V$11),"False","True")</f>
+        <v>True</v>
+      </c>
+      <c r="U6" s="11">
+        <f t="shared" ref="U6:U42" si="8">IF(S6&gt;=0,(1-_xlfn.NORM.S.DIST(S6,1))*2,_xlfn.NORM.S.DIST(S6,1))</f>
         <v>0.53547024021096989</v>
       </c>
-      <c r="R6" t="s">
+      <c r="V6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -1984,52 +2231,52 @@
         <f>(F5*(1-F5))^0.5</f>
         <v>0.36464227527765836</v>
       </c>
-      <c r="G7" s="11">
+      <c r="I7" s="11">
         <v>3</v>
       </c>
-      <c r="H7" s="11">
+      <c r="J7" s="11">
         <v>0.21</v>
       </c>
-      <c r="I7" s="11">
+      <c r="K7" s="11">
         <f t="shared" si="3"/>
         <v>1.428941916244324</v>
       </c>
-      <c r="J7" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="L7" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M7" s="11">
         <f t="shared" si="5"/>
         <v>0.15302092854299376</v>
       </c>
-      <c r="L7">
-        <f>(L5*(1-L5))^0.5</f>
+      <c r="N7">
+        <f>(N5*(1-N5))^0.5</f>
         <v>0.36464227527765836</v>
       </c>
-      <c r="M7" s="11">
+      <c r="Q7" s="11">
         <v>3</v>
       </c>
-      <c r="N7" s="11">
+      <c r="R7" s="11">
         <v>0.182</v>
       </c>
-      <c r="O7" s="11">
+      <c r="S7" s="11">
         <f t="shared" si="6"/>
         <v>1.4781886438024978</v>
       </c>
-      <c r="P7" s="11" t="str">
+      <c r="T7" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="U7" s="11">
         <f t="shared" si="8"/>
         <v>0.1393572926587936</v>
       </c>
-      <c r="R7">
-        <f>(R5*(1-R5))^0.5</f>
+      <c r="V7">
+        <f>(V5*(1-V5))^0.5</f>
         <v>0.36464227527765836</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -2051,50 +2298,50 @@
       <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="11">
+      <c r="I8" s="11">
         <v>4</v>
       </c>
-      <c r="H8" s="11">
+      <c r="J8" s="11">
         <v>0.16</v>
       </c>
-      <c r="I8" s="11">
+      <c r="K8" s="11">
         <f t="shared" si="3"/>
         <v>5.7735026918962914E-2</v>
       </c>
-      <c r="J8" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K8" s="11">
+      <c r="L8" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M8" s="11">
         <f t="shared" si="5"/>
         <v>0.95395969277203818</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="11">
+      <c r="Q8" s="11">
         <v>4</v>
       </c>
-      <c r="N8" s="11">
+      <c r="R8" s="11">
         <v>0.16400000000000001</v>
       </c>
-      <c r="O8" s="11">
+      <c r="S8" s="11">
         <f t="shared" si="6"/>
         <v>0.37438839013338465</v>
       </c>
-      <c r="P8" s="11" t="str">
+      <c r="T8" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="U8" s="11">
         <f t="shared" si="8"/>
         <v>0.70811537928086943</v>
       </c>
-      <c r="R8" t="s">
+      <c r="V8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -2117,52 +2364,52 @@
         <f>_xlfn.NORM.S.INV(0.95)</f>
         <v>1.6448536269514715</v>
       </c>
-      <c r="G9" s="11">
+      <c r="I9" s="11">
         <v>5</v>
       </c>
-      <c r="H9" s="11">
+      <c r="J9" s="11">
         <v>0.09</v>
       </c>
-      <c r="I9" s="11">
+      <c r="K9" s="11">
         <f t="shared" si="3"/>
         <v>-1.8619546181365432</v>
       </c>
-      <c r="J9" s="11" t="str">
+      <c r="L9" s="11" t="str">
         <f t="shared" si="4"/>
         <v>False</v>
       </c>
-      <c r="K9" s="11">
+      <c r="M9" s="11">
         <f t="shared" si="5"/>
         <v>3.1304743655523451E-2</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <f>_xlfn.NORM.S.INV(0.95)</f>
         <v>1.6448536269514715</v>
       </c>
-      <c r="M9" s="11">
+      <c r="Q9" s="11">
         <v>5</v>
       </c>
-      <c r="N9" s="11">
+      <c r="R9" s="11">
         <v>0.13600000000000001</v>
       </c>
-      <c r="O9" s="11">
+      <c r="S9" s="11">
         <f t="shared" si="6"/>
         <v>-1.3426342266852369</v>
       </c>
-      <c r="P9" s="11" t="str">
+      <c r="T9" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="U9" s="11">
         <f t="shared" si="8"/>
         <v>8.9695220961570718E-2</v>
       </c>
-      <c r="R9">
+      <c r="V9">
         <f>_xlfn.NORM.S.INV(0.95)</f>
         <v>1.6448536269514715</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>6</v>
       </c>
@@ -2184,50 +2431,50 @@
       <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="11">
+      <c r="I10" s="11">
         <v>6</v>
       </c>
-      <c r="H10" s="11">
+      <c r="J10" s="11">
         <v>0.13</v>
       </c>
-      <c r="I10" s="11">
+      <c r="K10" s="11">
         <f t="shared" si="3"/>
         <v>-0.76498910667625386</v>
       </c>
-      <c r="J10" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K10" s="11">
+      <c r="L10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M10" s="11">
         <f t="shared" si="5"/>
         <v>0.22213901565093458</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="11">
+      <c r="Q10" s="11">
         <v>6</v>
       </c>
-      <c r="N10" s="11">
+      <c r="R10" s="11">
         <v>0.156</v>
       </c>
-      <c r="O10" s="11">
+      <c r="S10" s="11">
         <f t="shared" si="6"/>
         <v>-0.116189500386222</v>
       </c>
-      <c r="P10" s="11" t="str">
+      <c r="T10" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="U10" s="11">
         <f t="shared" si="8"/>
         <v>0.45375117893531997</v>
       </c>
-      <c r="R10" t="s">
+      <c r="V10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -2250,52 +2497,52 @@
         <f>_xlfn.NORM.S.INV(0.05)</f>
         <v>-1.6448536269514726</v>
       </c>
-      <c r="G11" s="11">
+      <c r="I11" s="11">
         <v>7</v>
       </c>
-      <c r="H11" s="11">
+      <c r="J11" s="11">
         <v>0.16</v>
       </c>
-      <c r="I11" s="11">
+      <c r="K11" s="11">
         <f t="shared" si="3"/>
         <v>5.7735026918962914E-2</v>
       </c>
-      <c r="J11" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K11" s="11">
+      <c r="L11" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M11" s="11">
         <f t="shared" si="5"/>
         <v>0.95395969277203818</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <f>_xlfn.NORM.S.INV(0.05)</f>
         <v>-1.6448536269514726</v>
       </c>
-      <c r="M11" s="11">
+      <c r="Q11" s="11">
         <v>7</v>
       </c>
-      <c r="N11" s="11">
+      <c r="R11" s="11">
         <v>0.158</v>
       </c>
-      <c r="O11" s="11">
+      <c r="S11" s="11">
         <f t="shared" si="6"/>
         <v>6.4549722436796613E-3</v>
       </c>
-      <c r="P11" s="11" t="str">
+      <c r="T11" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="U11" s="11">
         <f t="shared" si="8"/>
         <v>0.99484971307226333</v>
       </c>
-      <c r="R11">
+      <c r="V11">
         <f>_xlfn.NORM.S.INV(0.05)</f>
         <v>-1.6448536269514726</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>8</v>
       </c>
@@ -2314,44 +2561,44 @@
         <f t="shared" si="2"/>
         <v>0.26157223601394947</v>
       </c>
-      <c r="G12" s="11">
+      <c r="I12" s="11">
         <v>8</v>
       </c>
-      <c r="H12" s="11">
+      <c r="J12" s="11">
         <v>0.11</v>
       </c>
-      <c r="I12" s="11">
+      <c r="K12" s="11">
         <f t="shared" si="3"/>
         <v>-1.3134718624063986</v>
       </c>
-      <c r="J12" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K12" s="11">
+      <c r="L12" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M12" s="11">
         <f t="shared" si="5"/>
         <v>9.4511998125611452E-2</v>
       </c>
-      <c r="M12" s="11">
+      <c r="Q12" s="11">
         <v>8</v>
       </c>
-      <c r="N12" s="11">
+      <c r="R12" s="11">
         <v>0.13800000000000001</v>
       </c>
-      <c r="O12" s="11">
+      <c r="S12" s="11">
         <f t="shared" si="6"/>
         <v>-1.2199897540553353</v>
       </c>
-      <c r="P12" s="11" t="str">
+      <c r="T12" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="U12" s="11">
         <f t="shared" si="8"/>
         <v>0.11123437950868184</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -2370,44 +2617,44 @@
         <f t="shared" si="2"/>
         <v>0.13091112789629072</v>
       </c>
-      <c r="G13" s="11">
+      <c r="I13" s="11">
         <v>9</v>
       </c>
-      <c r="H13" s="11">
+      <c r="J13" s="11">
         <v>0.15</v>
       </c>
-      <c r="I13" s="11">
+      <c r="K13" s="11">
         <f t="shared" si="3"/>
         <v>-0.21650635094610959</v>
       </c>
-      <c r="J13" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K13" s="11">
+      <c r="L13" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M13" s="11">
         <f t="shared" si="5"/>
         <v>0.41429653760932328</v>
       </c>
-      <c r="M13" s="11">
+      <c r="Q13" s="11">
         <v>9</v>
       </c>
-      <c r="N13" s="11">
+      <c r="R13" s="11">
         <v>0.126</v>
       </c>
-      <c r="O13" s="11">
+      <c r="S13" s="11">
         <f t="shared" si="6"/>
         <v>-1.9558565898347451</v>
       </c>
-      <c r="P13" s="11" t="str">
+      <c r="T13" s="11" t="str">
         <f t="shared" si="7"/>
         <v>False</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="U13" s="11">
         <f t="shared" si="8"/>
         <v>2.5241025160157145E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>10</v>
       </c>
@@ -2426,44 +2673,44 @@
         <f t="shared" si="2"/>
         <v>0.26157223601394947</v>
       </c>
-      <c r="G14" s="11">
+      <c r="I14" s="11">
         <v>10</v>
       </c>
-      <c r="H14" s="11">
+      <c r="J14" s="11">
         <v>0.18</v>
       </c>
-      <c r="I14" s="11">
+      <c r="K14" s="11">
         <f t="shared" si="3"/>
         <v>0.6062177826491072</v>
       </c>
-      <c r="J14" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K14" s="11">
+      <c r="L14" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M14" s="11">
         <f t="shared" si="5"/>
         <v>0.5443701458566097</v>
       </c>
-      <c r="M14" s="11">
+      <c r="Q14" s="11">
         <v>10</v>
       </c>
-      <c r="N14" s="11">
+      <c r="R14" s="11">
         <v>0.14799999999999999</v>
       </c>
-      <c r="O14" s="11">
+      <c r="S14" s="11">
         <f t="shared" si="6"/>
         <v>-0.60676739090582865</v>
       </c>
-      <c r="P14" s="11" t="str">
+      <c r="T14" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="U14" s="11">
         <f t="shared" si="8"/>
         <v>0.27200264583693223</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -2482,44 +2729,44 @@
         <f t="shared" si="2"/>
         <v>0.46243272645047634</v>
       </c>
-      <c r="G15" s="11">
+      <c r="I15" s="11">
         <v>11</v>
       </c>
-      <c r="H15" s="11">
+      <c r="J15" s="11">
         <v>0.16</v>
       </c>
-      <c r="I15" s="11">
+      <c r="K15" s="11">
         <f t="shared" si="3"/>
         <v>5.7735026918962914E-2</v>
       </c>
-      <c r="J15" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K15" s="11">
+      <c r="L15" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M15" s="11">
         <f t="shared" si="5"/>
         <v>0.95395969277203818</v>
       </c>
-      <c r="M15" s="11">
+      <c r="Q15" s="11">
         <v>11</v>
       </c>
-      <c r="N15" s="11">
+      <c r="R15" s="11">
         <v>0.14799999999999999</v>
       </c>
-      <c r="O15" s="11">
+      <c r="S15" s="11">
         <f t="shared" si="6"/>
         <v>-0.60676739090582865</v>
       </c>
-      <c r="P15" s="11" t="str">
+      <c r="T15" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="U15" s="11">
         <f t="shared" si="8"/>
         <v>0.27200264583693223</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -2538,44 +2785,44 @@
         <f t="shared" si="2"/>
         <v>0.66817016110640703</v>
       </c>
-      <c r="G16" s="11">
+      <c r="I16" s="11">
         <v>12</v>
       </c>
-      <c r="H16" s="11">
+      <c r="J16" s="11">
         <v>0.19</v>
       </c>
-      <c r="I16" s="11">
+      <c r="K16" s="11">
         <f t="shared" si="3"/>
         <v>0.88045916051417972</v>
       </c>
-      <c r="J16" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K16" s="11">
+      <c r="L16" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M16" s="11">
         <f t="shared" si="5"/>
         <v>0.37861061972738108</v>
       </c>
-      <c r="M16" s="11">
+      <c r="Q16" s="11">
         <v>12</v>
       </c>
-      <c r="N16" s="11">
+      <c r="R16" s="11">
         <v>0.17</v>
       </c>
-      <c r="O16" s="11">
+      <c r="S16" s="11">
         <f t="shared" si="6"/>
         <v>0.74232180802308956</v>
       </c>
-      <c r="P16" s="11" t="str">
+      <c r="T16" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="U16" s="11">
         <f t="shared" si="8"/>
         <v>0.45789238183101566</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -2594,44 +2841,44 @@
         <f t="shared" si="2"/>
         <v>5.7649392429594666E-2</v>
       </c>
-      <c r="G17" s="11">
+      <c r="I17" s="11">
         <v>13</v>
       </c>
-      <c r="H17" s="11">
+      <c r="J17" s="11">
         <v>0.09</v>
       </c>
-      <c r="I17" s="11">
+      <c r="K17" s="11">
         <f t="shared" si="3"/>
         <v>-1.8619546181365432</v>
       </c>
-      <c r="J17" s="11" t="str">
+      <c r="L17" s="11" t="str">
         <f t="shared" si="4"/>
         <v>False</v>
       </c>
-      <c r="K17" s="11">
+      <c r="M17" s="11">
         <f t="shared" si="5"/>
         <v>3.1304743655523451E-2</v>
       </c>
-      <c r="M17" s="11">
+      <c r="Q17" s="11">
         <v>13</v>
       </c>
-      <c r="N17" s="11">
+      <c r="R17" s="11">
         <v>0.152</v>
       </c>
-      <c r="O17" s="11">
+      <c r="S17" s="11">
         <f t="shared" si="6"/>
         <v>-0.36147844564602533</v>
       </c>
-      <c r="P17" s="11" t="str">
+      <c r="T17" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="U17" s="11">
         <f t="shared" si="8"/>
         <v>0.35887090756369</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>14</v>
       </c>
@@ -2650,44 +2897,44 @@
         <f t="shared" si="2"/>
         <v>0.72858301963413807</v>
       </c>
-      <c r="G18" s="11">
+      <c r="I18" s="11">
         <v>14</v>
       </c>
-      <c r="H18" s="11">
+      <c r="J18" s="11">
         <v>0.12</v>
       </c>
-      <c r="I18" s="11">
+      <c r="K18" s="11">
         <f t="shared" si="3"/>
         <v>-1.0392304845413265</v>
       </c>
-      <c r="J18" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K18" s="11">
+      <c r="L18" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M18" s="11">
         <f t="shared" si="5"/>
         <v>0.14934877799748503</v>
       </c>
-      <c r="M18" s="11">
+      <c r="Q18" s="11">
         <v>14</v>
       </c>
-      <c r="N18" s="11">
+      <c r="R18" s="11">
         <v>0.16800000000000001</v>
       </c>
-      <c r="O18" s="11">
+      <c r="S18" s="11">
         <f t="shared" si="6"/>
         <v>0.61967733539318792</v>
       </c>
-      <c r="P18" s="11" t="str">
+      <c r="T18" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="U18" s="11">
         <f t="shared" si="8"/>
         <v>0.53547024021096989</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -2706,44 +2953,44 @@
         <f t="shared" si="2"/>
         <v>0.96743554513953667</v>
       </c>
-      <c r="G19" s="11">
+      <c r="I19" s="11">
         <v>15</v>
       </c>
-      <c r="H19" s="11">
+      <c r="J19" s="11">
         <v>0.19</v>
       </c>
-      <c r="I19" s="11">
+      <c r="K19" s="11">
         <f t="shared" si="3"/>
         <v>0.88045916051417972</v>
       </c>
-      <c r="J19" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K19" s="11">
+      <c r="L19" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M19" s="11">
         <f t="shared" si="5"/>
         <v>0.37861061972738108</v>
       </c>
-      <c r="M19" s="11">
+      <c r="Q19" s="11">
         <v>15</v>
       </c>
-      <c r="N19" s="11">
+      <c r="R19" s="11">
         <v>0.16800000000000001</v>
       </c>
-      <c r="O19" s="11">
+      <c r="S19" s="11">
         <f t="shared" si="6"/>
         <v>0.61967733539318792</v>
       </c>
-      <c r="P19" s="11" t="str">
+      <c r="T19" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="U19" s="11">
         <f t="shared" si="8"/>
         <v>0.53547024021096989</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>16</v>
       </c>
@@ -2762,44 +3009,44 @@
         <f t="shared" si="2"/>
         <v>0.46243272645047634</v>
       </c>
-      <c r="G20" s="11">
+      <c r="I20" s="11">
         <v>16</v>
       </c>
-      <c r="H20" s="11">
+      <c r="J20" s="11">
         <v>0.13</v>
       </c>
-      <c r="I20" s="11">
+      <c r="K20" s="11">
         <f t="shared" si="3"/>
         <v>-0.76498910667625386</v>
       </c>
-      <c r="J20" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K20" s="11">
+      <c r="L20" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M20" s="11">
         <f t="shared" si="5"/>
         <v>0.22213901565093458</v>
       </c>
-      <c r="M20" s="11">
+      <c r="Q20" s="11">
         <v>16</v>
       </c>
-      <c r="N20" s="11">
+      <c r="R20" s="11">
         <v>0.16400000000000001</v>
       </c>
-      <c r="O20" s="11">
+      <c r="S20" s="11">
         <f t="shared" si="6"/>
         <v>0.37438839013338465</v>
       </c>
-      <c r="P20" s="11" t="str">
+      <c r="T20" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="U20" s="11">
         <f t="shared" si="8"/>
         <v>0.70811537928086943</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>17</v>
       </c>
@@ -2818,44 +3065,44 @@
         <f t="shared" si="2"/>
         <v>0.22846110659060392</v>
       </c>
-      <c r="G21" s="11">
+      <c r="I21" s="11">
         <v>17</v>
       </c>
-      <c r="H21" s="11">
+      <c r="J21" s="11">
         <v>0.22</v>
       </c>
-      <c r="I21" s="11">
+      <c r="K21" s="11">
         <f t="shared" si="3"/>
         <v>1.7031832941093965</v>
       </c>
-      <c r="J21" s="11" t="str">
+      <c r="L21" s="11" t="str">
         <f t="shared" si="4"/>
         <v>False</v>
       </c>
-      <c r="K21" s="11">
+      <c r="M21" s="11">
         <f t="shared" si="5"/>
         <v>8.8533772014229406E-2</v>
       </c>
-      <c r="M21" s="11">
+      <c r="Q21" s="11">
         <v>17</v>
       </c>
-      <c r="N21" s="11">
+      <c r="R21" s="11">
         <v>0.17399999999999999</v>
       </c>
-      <c r="O21" s="11">
+      <c r="S21" s="11">
         <f t="shared" si="6"/>
         <v>0.98761075328289127</v>
       </c>
-      <c r="P21" s="11" t="str">
+      <c r="T21" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="U21" s="11">
         <f t="shared" si="8"/>
         <v>0.32334331783668357</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>18</v>
       </c>
@@ -2874,44 +3121,44 @@
         <f t="shared" si="2"/>
         <v>0.41421617824252488</v>
       </c>
-      <c r="G22" s="11">
+      <c r="I22" s="11">
         <v>18</v>
       </c>
-      <c r="H22" s="11">
+      <c r="J22" s="11">
         <v>0.17</v>
       </c>
-      <c r="I22" s="11">
+      <c r="K22" s="11">
         <f t="shared" si="3"/>
         <v>0.33197640478403545</v>
       </c>
-      <c r="J22" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K22" s="11">
+      <c r="L22" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M22" s="11">
         <f t="shared" si="5"/>
         <v>0.73990707585501636</v>
       </c>
-      <c r="M22" s="11">
+      <c r="Q22" s="11">
         <v>18</v>
       </c>
-      <c r="N22" s="11">
+      <c r="R22" s="11">
         <v>0.14199999999999999</v>
       </c>
-      <c r="O22" s="11">
+      <c r="S22" s="11">
         <f t="shared" si="6"/>
         <v>-0.97470080879553356</v>
       </c>
-      <c r="P22" s="11" t="str">
+      <c r="T22" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="U22" s="11">
         <f t="shared" si="8"/>
         <v>0.16485434582442823</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>19</v>
       </c>
@@ -2930,44 +3177,44 @@
         <f t="shared" si="2"/>
         <v>0.72858301963413807</v>
       </c>
-      <c r="G23" s="11">
+      <c r="I23" s="11">
         <v>19</v>
       </c>
-      <c r="H23" s="11">
+      <c r="J23" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I23" s="11">
+      <c r="K23" s="11">
         <f t="shared" si="3"/>
         <v>-0.49074772881118134</v>
       </c>
-      <c r="J23" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M23" s="11">
         <f t="shared" si="5"/>
         <v>0.31180244219784459</v>
       </c>
-      <c r="M23" s="11">
+      <c r="Q23" s="11">
         <v>19</v>
       </c>
-      <c r="N23" s="11">
+      <c r="R23" s="11">
         <v>0.182</v>
       </c>
-      <c r="O23" s="11">
+      <c r="S23" s="11">
         <f t="shared" si="6"/>
         <v>1.4781886438024978</v>
       </c>
-      <c r="P23" s="11" t="str">
+      <c r="T23" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="U23" s="11">
         <f t="shared" si="8"/>
         <v>0.1393572926587936</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>20</v>
       </c>
@@ -2986,44 +3233,44 @@
         <f t="shared" si="2"/>
         <v>0.96743554513953667</v>
       </c>
-      <c r="G24" s="11">
+      <c r="I24" s="11">
         <v>20</v>
       </c>
-      <c r="H24" s="11">
+      <c r="J24" s="11">
         <v>0.19</v>
       </c>
-      <c r="I24" s="11">
+      <c r="K24" s="11">
         <f t="shared" si="3"/>
         <v>0.88045916051417972</v>
       </c>
-      <c r="J24" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K24" s="11">
+      <c r="L24" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M24" s="11">
         <f t="shared" si="5"/>
         <v>0.37861061972738108</v>
       </c>
-      <c r="M24" s="11">
+      <c r="Q24" s="11">
         <v>20</v>
       </c>
-      <c r="N24" s="11">
+      <c r="R24" s="11">
         <v>0.14599999999999999</v>
       </c>
-      <c r="O24" s="11">
+      <c r="S24" s="11">
         <f t="shared" si="6"/>
         <v>-0.72941186353573029</v>
       </c>
-      <c r="P24" s="11" t="str">
+      <c r="T24" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="U24" s="11">
         <f t="shared" si="8"/>
         <v>0.23287488150740551</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>21</v>
       </c>
@@ -3042,44 +3289,44 @@
         <f t="shared" si="2"/>
         <v>0.96743554513953667</v>
       </c>
-      <c r="G25" s="11">
+      <c r="I25" s="11">
         <v>21</v>
       </c>
-      <c r="H25" s="11">
+      <c r="J25" s="11">
         <v>0.16</v>
       </c>
-      <c r="I25" s="11">
+      <c r="K25" s="11">
         <f t="shared" si="3"/>
         <v>5.7735026918962914E-2</v>
       </c>
-      <c r="J25" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K25" s="11">
+      <c r="L25" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M25" s="11">
         <f t="shared" si="5"/>
         <v>0.95395969277203818</v>
       </c>
-      <c r="M25" s="11">
+      <c r="Q25" s="11">
         <v>21</v>
       </c>
-      <c r="N25" s="11">
+      <c r="R25" s="11">
         <v>0.17799999999999999</v>
       </c>
-      <c r="O25" s="11">
+      <c r="S25" s="11">
         <f t="shared" si="6"/>
         <v>1.2328996985426945</v>
       </c>
-      <c r="P25" s="11" t="str">
+      <c r="T25" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="U25" s="11">
         <f t="shared" si="8"/>
         <v>0.21761318794716367</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>22</v>
       </c>
@@ -3098,44 +3345,44 @@
         <f t="shared" si="2"/>
         <v>0.13091112789629072</v>
       </c>
-      <c r="G26" s="11">
+      <c r="I26" s="11">
         <v>22</v>
       </c>
-      <c r="H26" s="11">
+      <c r="J26" s="11">
         <v>0.13</v>
       </c>
-      <c r="I26" s="11">
+      <c r="K26" s="11">
         <f t="shared" si="3"/>
         <v>-0.76498910667625386</v>
       </c>
-      <c r="J26" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K26" s="11">
+      <c r="L26" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M26" s="11">
         <f t="shared" si="5"/>
         <v>0.22213901565093458</v>
       </c>
-      <c r="M26" s="11">
+      <c r="Q26" s="11">
         <v>22</v>
       </c>
-      <c r="N26" s="11">
+      <c r="R26" s="11">
         <v>0.15</v>
       </c>
-      <c r="O26" s="11">
+      <c r="S26" s="11">
         <f t="shared" si="6"/>
         <v>-0.48412291827592696</v>
       </c>
-      <c r="P26" s="11" t="str">
+      <c r="T26" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="U26" s="11">
         <f t="shared" si="8"/>
         <v>0.31414931858796069</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>23</v>
       </c>
@@ -3154,44 +3401,44 @@
         <f t="shared" si="2"/>
         <v>0.72858301963413807</v>
       </c>
-      <c r="G27" s="11">
+      <c r="I27" s="11">
         <v>23</v>
       </c>
-      <c r="H27" s="11">
+      <c r="J27" s="11">
         <v>0.18</v>
       </c>
-      <c r="I27" s="11">
+      <c r="K27" s="11">
         <f t="shared" si="3"/>
         <v>0.6062177826491072</v>
       </c>
-      <c r="J27" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K27" s="11">
+      <c r="L27" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M27" s="11">
         <f t="shared" si="5"/>
         <v>0.5443701458566097</v>
       </c>
-      <c r="M27" s="11">
+      <c r="Q27" s="11">
         <v>23</v>
       </c>
-      <c r="N27" s="11">
+      <c r="R27" s="11">
         <v>0.14799999999999999</v>
       </c>
-      <c r="O27" s="11">
+      <c r="S27" s="11">
         <f t="shared" si="6"/>
         <v>-0.60676739090582865</v>
       </c>
-      <c r="P27" s="11" t="str">
+      <c r="T27" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="U27" s="11">
         <f t="shared" si="8"/>
         <v>0.27200264583693223</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>24</v>
       </c>
@@ -3210,44 +3457,44 @@
         <f t="shared" si="2"/>
         <v>0.22846110659060392</v>
       </c>
-      <c r="G28" s="11">
+      <c r="I28" s="11">
         <v>24</v>
       </c>
-      <c r="H28" s="11">
+      <c r="J28" s="11">
         <v>0.17</v>
       </c>
-      <c r="I28" s="11">
+      <c r="K28" s="11">
         <f t="shared" si="3"/>
         <v>0.33197640478403545</v>
       </c>
-      <c r="J28" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K28" s="11">
+      <c r="L28" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M28" s="11">
         <f t="shared" si="5"/>
         <v>0.73990707585501636</v>
       </c>
-      <c r="M28" s="11">
+      <c r="Q28" s="11">
         <v>24</v>
       </c>
-      <c r="N28" s="11">
+      <c r="R28" s="11">
         <v>0.154</v>
       </c>
-      <c r="O28" s="11">
+      <c r="S28" s="11">
         <f t="shared" si="6"/>
         <v>-0.23883397301612366</v>
       </c>
-      <c r="P28" s="11" t="str">
+      <c r="T28" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="U28" s="11">
         <f t="shared" si="8"/>
         <v>0.40561716287960514</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>25</v>
       </c>
@@ -3266,44 +3513,44 @@
         <f t="shared" si="2"/>
         <v>1.7892267613019319E-2</v>
       </c>
-      <c r="G29" s="11">
+      <c r="I29" s="11">
         <v>25</v>
       </c>
-      <c r="H29" s="11">
+      <c r="J29" s="11">
         <v>0.23</v>
       </c>
-      <c r="I29" s="11">
+      <c r="K29" s="11">
         <f t="shared" si="3"/>
         <v>1.977424671974469</v>
       </c>
-      <c r="J29" s="11" t="str">
+      <c r="L29" s="11" t="str">
         <f t="shared" si="4"/>
         <v>False</v>
       </c>
-      <c r="K29" s="11">
+      <c r="M29" s="11">
         <f t="shared" si="5"/>
         <v>4.79936474534155E-2</v>
       </c>
-      <c r="M29" s="11">
+      <c r="Q29" s="11">
         <v>25</v>
       </c>
-      <c r="N29" s="11">
+      <c r="R29" s="11">
         <v>0.16200000000000001</v>
       </c>
-      <c r="O29" s="11">
+      <c r="S29" s="11">
         <f t="shared" si="6"/>
         <v>0.25174391750348296</v>
       </c>
-      <c r="P29" s="11" t="str">
+      <c r="T29" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="U29" s="11">
         <f t="shared" si="8"/>
         <v>0.80123900866936948</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>26</v>
       </c>
@@ -3322,44 +3569,44 @@
         <f t="shared" si="2"/>
         <v>0.41421617824252488</v>
       </c>
-      <c r="G30" s="11">
+      <c r="I30" s="11">
         <v>26</v>
       </c>
-      <c r="H30" s="11">
+      <c r="J30" s="11">
         <v>0.19</v>
       </c>
-      <c r="I30" s="11">
+      <c r="K30" s="11">
         <f t="shared" si="3"/>
         <v>0.88045916051417972</v>
       </c>
-      <c r="J30" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K30" s="11">
+      <c r="L30" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M30" s="11">
         <f t="shared" si="5"/>
         <v>0.37861061972738108</v>
       </c>
-      <c r="M30" s="11">
+      <c r="Q30" s="11">
         <v>26</v>
       </c>
-      <c r="N30" s="11">
+      <c r="R30" s="11">
         <v>0.17</v>
       </c>
-      <c r="O30" s="11">
+      <c r="S30" s="11">
         <f t="shared" si="6"/>
         <v>0.74232180802308956</v>
       </c>
-      <c r="P30" s="11" t="str">
+      <c r="T30" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="U30" s="11">
         <f t="shared" si="8"/>
         <v>0.45789238183101566</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>27</v>
       </c>
@@ -3378,44 +3625,44 @@
         <f t="shared" si="2"/>
         <v>0.96743554513953667</v>
       </c>
-      <c r="G31" s="11">
+      <c r="I31" s="11">
         <v>27</v>
       </c>
-      <c r="H31" s="11">
+      <c r="J31" s="11">
         <v>0.15</v>
       </c>
-      <c r="I31" s="11">
+      <c r="K31" s="11">
         <f t="shared" si="3"/>
         <v>-0.21650635094610959</v>
       </c>
-      <c r="J31" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K31" s="11">
+      <c r="L31" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M31" s="11">
         <f t="shared" si="5"/>
         <v>0.41429653760932328</v>
       </c>
-      <c r="M31" s="11">
+      <c r="Q31" s="11">
         <v>27</v>
       </c>
-      <c r="N31" s="11">
+      <c r="R31" s="11">
         <v>0.182</v>
       </c>
-      <c r="O31" s="11">
+      <c r="S31" s="11">
         <f t="shared" si="6"/>
         <v>1.4781886438024978</v>
       </c>
-      <c r="P31" s="11" t="str">
+      <c r="T31" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="U31" s="11">
         <f t="shared" si="8"/>
         <v>0.1393572926587936</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>28</v>
       </c>
@@ -3434,44 +3681,44 @@
         <f t="shared" si="2"/>
         <v>0.96743554513953667</v>
       </c>
-      <c r="G32" s="11">
+      <c r="I32" s="11">
         <v>28</v>
       </c>
-      <c r="H32" s="11">
+      <c r="J32" s="11">
         <v>0.16</v>
       </c>
-      <c r="I32" s="11">
+      <c r="K32" s="11">
         <f t="shared" si="3"/>
         <v>5.7735026918962914E-2</v>
       </c>
-      <c r="J32" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K32" s="11">
+      <c r="L32" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M32" s="11">
         <f t="shared" si="5"/>
         <v>0.95395969277203818</v>
       </c>
-      <c r="M32" s="11">
+      <c r="Q32" s="11">
         <v>28</v>
       </c>
-      <c r="N32" s="11">
+      <c r="R32" s="11">
         <v>0.17199999999999999</v>
       </c>
-      <c r="O32" s="11">
+      <c r="S32" s="11">
         <f t="shared" si="6"/>
         <v>0.86496628065298953</v>
       </c>
-      <c r="P32" s="11" t="str">
+      <c r="T32" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="U32" s="11">
         <f t="shared" si="8"/>
         <v>0.38705729640621245</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>29</v>
       </c>
@@ -3490,44 +3737,44 @@
         <f t="shared" si="2"/>
         <v>4.7703055763420155E-2</v>
       </c>
-      <c r="G33" s="11">
+      <c r="I33" s="11">
         <v>29</v>
       </c>
-      <c r="H33" s="11">
+      <c r="J33" s="11">
         <v>0.23</v>
       </c>
-      <c r="I33" s="11">
+      <c r="K33" s="11">
         <f t="shared" si="3"/>
         <v>1.977424671974469</v>
       </c>
-      <c r="J33" s="11" t="str">
+      <c r="L33" s="11" t="str">
         <f t="shared" si="4"/>
         <v>False</v>
       </c>
-      <c r="K33" s="11">
+      <c r="M33" s="11">
         <f t="shared" si="5"/>
         <v>4.79936474534155E-2</v>
       </c>
-      <c r="M33" s="11">
+      <c r="Q33" s="11">
         <v>29</v>
       </c>
-      <c r="N33" s="11">
+      <c r="R33" s="11">
         <v>0.17799999999999999</v>
       </c>
-      <c r="O33" s="11">
+      <c r="S33" s="11">
         <f t="shared" si="6"/>
         <v>1.2328996985426945</v>
       </c>
-      <c r="P33" s="11" t="str">
+      <c r="T33" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="U33" s="11">
         <f t="shared" si="8"/>
         <v>0.21761318794716367</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>30</v>
       </c>
@@ -3546,44 +3793,44 @@
         <f t="shared" si="2"/>
         <v>0.96743554513953667</v>
       </c>
-      <c r="G34" s="11">
+      <c r="I34" s="11">
         <v>30</v>
       </c>
-      <c r="H34" s="11">
+      <c r="J34" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I34" s="11">
+      <c r="K34" s="11">
         <f t="shared" si="3"/>
         <v>-0.49074772881118134</v>
       </c>
-      <c r="J34" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K34" s="11">
+      <c r="L34" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M34" s="11">
         <f t="shared" si="5"/>
         <v>0.31180244219784459</v>
       </c>
-      <c r="M34" s="11">
+      <c r="Q34" s="11">
         <v>30</v>
       </c>
-      <c r="N34" s="11">
+      <c r="R34" s="11">
         <v>0.152</v>
       </c>
-      <c r="O34" s="11">
+      <c r="S34" s="11">
         <f t="shared" si="6"/>
         <v>-0.36147844564602533</v>
       </c>
-      <c r="P34" s="11" t="str">
+      <c r="T34" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="U34" s="11">
         <f t="shared" si="8"/>
         <v>0.35887090756369</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>31</v>
       </c>
@@ -3602,44 +3849,44 @@
         <f t="shared" si="2"/>
         <v>0.13091112789629072</v>
       </c>
-      <c r="G35" s="11">
+      <c r="I35" s="11">
         <v>31</v>
       </c>
-      <c r="H35" s="11">
+      <c r="J35" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I35" s="11">
+      <c r="K35" s="11">
         <f t="shared" si="3"/>
         <v>-2.4104373738666873</v>
       </c>
-      <c r="J35" s="11" t="str">
+      <c r="L35" s="11" t="str">
         <f t="shared" si="4"/>
         <v>False</v>
       </c>
-      <c r="K35" s="11">
+      <c r="M35" s="11">
         <f t="shared" si="5"/>
         <v>7.9667032709125288E-3</v>
       </c>
-      <c r="M35" s="11">
+      <c r="Q35" s="11">
         <v>31</v>
       </c>
-      <c r="N35" s="11">
+      <c r="R35" s="11">
         <v>0.17199999999999999</v>
       </c>
-      <c r="O35" s="11">
+      <c r="S35" s="11">
         <f t="shared" si="6"/>
         <v>0.86496628065298953</v>
       </c>
-      <c r="P35" s="11" t="str">
+      <c r="T35" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="U35" s="11">
         <f t="shared" si="8"/>
         <v>0.38705729640621245</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>32</v>
       </c>
@@ -3658,44 +3905,44 @@
         <f t="shared" si="2"/>
         <v>0.72858301963413807</v>
       </c>
-      <c r="G36" s="11">
+      <c r="I36" s="11">
         <v>32</v>
       </c>
-      <c r="H36" s="11">
+      <c r="J36" s="11">
         <v>0.12</v>
       </c>
-      <c r="I36" s="11">
+      <c r="K36" s="11">
         <f t="shared" si="3"/>
         <v>-1.0392304845413265</v>
       </c>
-      <c r="J36" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K36" s="11">
+      <c r="L36" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M36" s="11">
         <f t="shared" si="5"/>
         <v>0.14934877799748503</v>
       </c>
-      <c r="M36" s="11">
+      <c r="Q36" s="11">
         <v>32</v>
       </c>
-      <c r="N36" s="11">
+      <c r="R36" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O36" s="11">
+      <c r="S36" s="11">
         <f t="shared" si="6"/>
         <v>-1.0973452814254336</v>
       </c>
-      <c r="P36" s="11" t="str">
+      <c r="T36" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q36" s="11">
+      <c r="U36" s="11">
         <f t="shared" si="8"/>
         <v>0.13624524173497618</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>33</v>
       </c>
@@ -3714,44 +3961,44 @@
         <f t="shared" si="2"/>
         <v>0.66817016110640703</v>
       </c>
-      <c r="G37" s="11">
+      <c r="I37" s="11">
         <v>33</v>
       </c>
-      <c r="H37" s="11">
+      <c r="J37" s="11">
         <v>0.18</v>
       </c>
-      <c r="I37" s="11">
+      <c r="K37" s="11">
         <f t="shared" si="3"/>
         <v>0.6062177826491072</v>
       </c>
-      <c r="J37" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K37" s="11">
+      <c r="L37" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M37" s="11">
         <f t="shared" si="5"/>
         <v>0.5443701458566097</v>
       </c>
-      <c r="M37" s="11">
+      <c r="Q37" s="11">
         <v>33</v>
       </c>
-      <c r="N37" s="11">
+      <c r="R37" s="11">
         <v>0.152</v>
       </c>
-      <c r="O37" s="11">
+      <c r="S37" s="11">
         <f t="shared" si="6"/>
         <v>-0.36147844564602533</v>
       </c>
-      <c r="P37" s="11" t="str">
+      <c r="T37" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q37" s="11">
+      <c r="U37" s="11">
         <f t="shared" si="8"/>
         <v>0.35887090756369</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>34</v>
       </c>
@@ -3770,44 +4017,44 @@
         <f t="shared" si="2"/>
         <v>0.66817016110640703</v>
       </c>
-      <c r="G38" s="11">
+      <c r="I38" s="11">
         <v>34</v>
       </c>
-      <c r="H38" s="11">
+      <c r="J38" s="11">
         <v>0.17</v>
       </c>
-      <c r="I38" s="11">
+      <c r="K38" s="11">
         <f t="shared" si="3"/>
         <v>0.33197640478403545</v>
       </c>
-      <c r="J38" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K38" s="11">
+      <c r="L38" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M38" s="11">
         <f t="shared" si="5"/>
         <v>0.73990707585501636</v>
       </c>
-      <c r="M38" s="11">
+      <c r="Q38" s="11">
         <v>34</v>
       </c>
-      <c r="N38" s="11">
+      <c r="R38" s="11">
         <v>0.14199999999999999</v>
       </c>
-      <c r="O38" s="11">
+      <c r="S38" s="11">
         <f t="shared" si="6"/>
         <v>-0.97470080879553356</v>
       </c>
-      <c r="P38" s="11" t="str">
+      <c r="T38" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q38" s="11">
+      <c r="U38" s="11">
         <f t="shared" si="8"/>
         <v>0.16485434582442823</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>35</v>
       </c>
@@ -3826,44 +4073,44 @@
         <f t="shared" si="2"/>
         <v>0.96743554513953667</v>
       </c>
-      <c r="G39" s="11">
+      <c r="I39" s="11">
         <v>35</v>
       </c>
-      <c r="H39" s="11">
+      <c r="J39" s="11">
         <v>0.17</v>
       </c>
-      <c r="I39" s="11">
+      <c r="K39" s="11">
         <f t="shared" si="3"/>
         <v>0.33197640478403545</v>
       </c>
-      <c r="J39" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K39" s="11">
+      <c r="L39" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M39" s="11">
         <f t="shared" si="5"/>
         <v>0.73990707585501636</v>
       </c>
-      <c r="M39" s="11">
+      <c r="Q39" s="11">
         <v>35</v>
       </c>
-      <c r="N39" s="11">
+      <c r="R39" s="11">
         <v>0.16</v>
       </c>
-      <c r="O39" s="11">
+      <c r="S39" s="11">
         <f t="shared" si="6"/>
         <v>0.12909944487358133</v>
       </c>
-      <c r="P39" s="11" t="str">
+      <c r="T39" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q39" s="11">
+      <c r="U39" s="11">
         <f t="shared" si="8"/>
         <v>0.89727896126008244</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>36</v>
       </c>
@@ -3882,44 +4129,44 @@
         <f t="shared" si="2"/>
         <v>0.96743554513953667</v>
       </c>
-      <c r="G40" s="11">
+      <c r="I40" s="11">
         <v>36</v>
       </c>
-      <c r="H40" s="11">
+      <c r="J40" s="11">
         <v>0.17</v>
       </c>
-      <c r="I40" s="11">
+      <c r="K40" s="11">
         <f t="shared" si="3"/>
         <v>0.33197640478403545</v>
       </c>
-      <c r="J40" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K40" s="11">
+      <c r="L40" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M40" s="11">
         <f t="shared" si="5"/>
         <v>0.73990707585501636</v>
       </c>
-      <c r="M40" s="11">
+      <c r="Q40" s="11">
         <v>36</v>
       </c>
-      <c r="N40" s="11">
+      <c r="R40" s="11">
         <v>0.152</v>
       </c>
-      <c r="O40" s="11">
+      <c r="S40" s="11">
         <f t="shared" si="6"/>
         <v>-0.36147844564602533</v>
       </c>
-      <c r="P40" s="11" t="str">
+      <c r="T40" s="11" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q40" s="11">
+      <c r="U40" s="11">
         <f t="shared" si="8"/>
         <v>0.35887090756369</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>37</v>
       </c>
@@ -3938,44 +4185,44 @@
         <f t="shared" si="2"/>
         <v>0.46243272645047634</v>
       </c>
-      <c r="G41" s="11">
+      <c r="I41" s="11">
         <v>37</v>
       </c>
-      <c r="H41" s="11">
+      <c r="J41" s="11">
         <v>0.11</v>
       </c>
-      <c r="I41" s="11">
+      <c r="K41" s="11">
         <f t="shared" si="3"/>
         <v>-1.3134718624063986</v>
       </c>
-      <c r="J41" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K41" s="11">
+      <c r="L41" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M41" s="11">
         <f t="shared" si="5"/>
         <v>9.4511998125611452E-2</v>
       </c>
-      <c r="M41" s="11">
+      <c r="Q41" s="11">
         <v>37</v>
       </c>
-      <c r="N41" s="11">
+      <c r="R41" s="11">
         <v>0.128</v>
       </c>
-      <c r="O41" s="11">
+      <c r="S41" s="11">
         <f t="shared" si="6"/>
         <v>-1.8332121172048434</v>
       </c>
-      <c r="P41" s="11" t="str">
+      <c r="T41" s="11" t="str">
         <f t="shared" si="7"/>
         <v>False</v>
       </c>
-      <c r="Q41" s="11">
+      <c r="U41" s="11">
         <f t="shared" si="8"/>
         <v>3.3385516297309438E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>38</v>
       </c>
@@ -3994,39 +4241,39 @@
         <f t="shared" si="2"/>
         <v>0.41421617824252488</v>
       </c>
-      <c r="G42" s="12">
+      <c r="I42" s="12">
         <v>38</v>
       </c>
-      <c r="H42" s="12">
+      <c r="J42" s="12">
         <v>0.17</v>
       </c>
-      <c r="I42" s="12">
+      <c r="K42" s="12">
         <f t="shared" si="3"/>
         <v>0.33197640478403545</v>
       </c>
-      <c r="J42" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="K42" s="12">
+      <c r="L42" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
+      <c r="M42" s="12">
         <f t="shared" si="5"/>
         <v>0.73990707585501636</v>
       </c>
-      <c r="M42" s="12">
+      <c r="Q42" s="12">
         <v>38</v>
       </c>
-      <c r="N42" s="12">
+      <c r="R42" s="12">
         <v>0.16600000000000001</v>
       </c>
-      <c r="O42" s="12">
+      <c r="S42" s="12">
         <f t="shared" si="6"/>
         <v>0.49703286276328629</v>
       </c>
-      <c r="P42" s="12" t="str">
+      <c r="T42" s="12" t="str">
         <f t="shared" si="7"/>
         <v>True</v>
       </c>
-      <c r="Q42" s="12">
+      <c r="U42" s="12">
         <f t="shared" si="8"/>
         <v>0.61916587720580885</v>
       </c>
@@ -4034,23 +4281,1829 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="Q1:T1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D5:E42">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="False">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="False">
       <formula>NOT(ISERROR(SEARCH("False",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:K42">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="False">
-      <formula>NOT(ISERROR(SEARCH("False",J5)))</formula>
+  <conditionalFormatting sqref="L5:M42">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="False">
+      <formula>NOT(ISERROR(SEARCH("False",L5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:Q42">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="False">
-      <formula>NOT(ISERROR(SEARCH("False",P5)))</formula>
+  <conditionalFormatting sqref="T5:U42">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="False">
+      <formula>NOT(ISERROR(SEARCH("False",T5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47120C51-2DA1-4C18-99A1-F1CC20AFBEF2}">
+  <dimension ref="A1:N42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="29.5" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="12" max="12" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <f>_xlfn.BINOM.INV(50,6/38,0.05)</f>
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <f>_xlfn.BINOM.INV(100,6/38,0.05)</f>
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.BINOM.INV(500,6/38,0.05)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <f>_xlfn.BINOM.INV(50,6/38,0.95)</f>
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3">
+        <f>_xlfn.BINOM.INV(100,6/38,0.95)</f>
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <f>_xlfn.BINOM.INV(500,6/38,0.95)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="str">
+        <f>IF(OR(B5&lt;$B$2,B5&gt;$B$3),"Reject","Accept")</f>
+        <v>Accept</v>
+      </c>
+      <c r="D5">
+        <f>IF(_xlfn.BINOM.DIST(B5,50,6/38,1)&gt;0.5,(1-_xlfn.BINOM.DIST(B5,50,6/38,1))*2,_xlfn.BINOM.DIST(B5,50,6/38,1)*2)</f>
+        <v>0.31131370283812299</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5" t="str">
+        <f>IF(OR(G5&lt;$G$2,G5&gt;$G$3),"Reject","Accept")</f>
+        <v>Accept</v>
+      </c>
+      <c r="I5">
+        <f>IF(_xlfn.BINOM.DIST(G5,100,6/38,1)&gt;0.5,(1-_xlfn.BINOM.DIST(G5,100,6/38,1))*2,_xlfn.BINOM.DIST(G5,100,6/38,1)*2)</f>
+        <v>0.82208038092205715</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>76</v>
+      </c>
+      <c r="M5" t="str">
+        <f>IF(OR(L5&lt;=$L$2,L5&gt;=$L$3),"Reject","Accept")</f>
+        <v>Accept</v>
+      </c>
+      <c r="N5">
+        <f>IF(_xlfn.BINOM.DIST(L5,500,6/38,1)&gt;0.5,(1-_xlfn.BINOM.DIST(L5,500,6/38,1))*2,_xlfn.BINOM.DIST(L5,500,6/38,1)*2)</f>
+        <v>0.7738725719869578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6:C42" si="0">IF(OR(B6&lt;$B$2,B6&gt;$B$3),"Reject","Accept")</f>
+        <v>Accept</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D42" si="1">IF(_xlfn.BINOM.DIST(B6,50,6/38,1)&gt;0.5,(1-_xlfn.BINOM.DIST(B6,50,6/38,1))*2,_xlfn.BINOM.DIST(B6,50,6/38,1)*2)</f>
+        <v>0.78219332576613221</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ref="H6:H42" si="2">IF(OR(G6&lt;=$G$2,G6&gt;=$G$3),"Reject","Accept")</f>
+        <v>Accept</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I42" si="3">IF(_xlfn.BINOM.DIST(G6,100,6/38,1)&gt;0.5,(1-_xlfn.BINOM.DIST(G6,100,6/38,1))*2,_xlfn.BINOM.DIST(G6,100,6/38,1)*2)</f>
+        <v>0.96180277960104776</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>84</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" ref="M6:M42" si="4">IF(OR(L6&lt;=$L$2,L6&gt;=$L$3),"Reject","Accept")</f>
+        <v>Accept</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N42" si="5">IF(_xlfn.BINOM.DIST(L6,500,6/38,1)&gt;0.5,(1-_xlfn.BINOM.DIST(L6,500,6/38,1))*2,_xlfn.BINOM.DIST(L6,500,6/38,1)*2)</f>
+        <v>0.49115022956276122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>8.6742325892842587E-2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0.12629909435213449</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>91</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>0.12799765621863335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.31131370283812299</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.82208038092205715</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>82</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>0.65490262036304481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.35550532198156892</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>Reject</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>7.1213014156350979E-2</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>68</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>0.19661472900062074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.1733519536763494</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0.54301111473966412</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>78</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>0.96739205231058845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.31131370283812299</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0.82208038092205715</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>79</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>0.93488653708158997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.35550532198156892</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0.23332230626673228</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>69</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>0.24439139945073299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.1733519536763494</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0.96180277960104776</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>63</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="4"/>
+        <v>Reject</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>5.2993298042911738E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.35550532198156892</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>18</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0.44874251346174132</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>74</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>0.59230294633229685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.61165849616078438</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0.82208038092205715</v>
+      </c>
+      <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <v>74</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>0.59230294633229685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.51597163082450148</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>19</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0.3086584834373971</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+      <c r="L16">
+        <v>85</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>0.41870942353528884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>Reject</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>6.7755798137091483E-2</v>
+      </c>
+      <c r="F17">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>Reject</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>7.1213014156350979E-2</v>
+      </c>
+      <c r="K17">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <v>76</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>0.7738725719869578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.91355330858628825</v>
+      </c>
+      <c r="F18">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0.36979534050904161</v>
+      </c>
+      <c r="K18">
+        <v>14</v>
+      </c>
+      <c r="L18">
+        <v>84</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>0.49115022956276122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.78219332576613221</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>19</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.3086584834373971</v>
+      </c>
+      <c r="K19">
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <v>84</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>0.49115022956276122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.61165849616078438</v>
+      </c>
+      <c r="F20">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0.54301111473966412</v>
+      </c>
+      <c r="K20">
+        <v>16</v>
+      </c>
+      <c r="L20">
+        <v>82</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>0.65490262036304481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.17177420648377417</v>
+      </c>
+      <c r="F21">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>22</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>Reject</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>7.5140032783470367E-2</v>
+      </c>
+      <c r="K21">
+        <v>17</v>
+      </c>
+      <c r="L21">
+        <v>87</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>0.29468399770596743</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.31131370283812299</v>
+      </c>
+      <c r="F22">
+        <v>18</v>
+      </c>
+      <c r="G22">
+        <v>17</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0.62185448552434641</v>
+      </c>
+      <c r="K22">
+        <v>18</v>
+      </c>
+      <c r="L22">
+        <v>71</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>0.36218151502541418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.91355330858628825</v>
+      </c>
+      <c r="F23">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>14</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0.74483842310659454</v>
+      </c>
+      <c r="K23">
+        <v>19</v>
+      </c>
+      <c r="L23">
+        <v>91</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>0.12799765621863335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.78219332576613221</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>19</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>0.3086584834373971</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>73</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="5"/>
+        <v>0.50907801647360684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.78219332576613221</v>
+      </c>
+      <c r="F25">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0.82208038092205715</v>
+      </c>
+      <c r="K25">
+        <v>21</v>
+      </c>
+      <c r="L25">
+        <v>89</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="5"/>
+        <v>0.19855446062618531</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0.1733519536763494</v>
+      </c>
+      <c r="F26">
+        <v>22</v>
+      </c>
+      <c r="G26">
+        <v>13</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>0.54301111473966412</v>
+      </c>
+      <c r="K26">
+        <v>22</v>
+      </c>
+      <c r="L26">
+        <v>75</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="5"/>
+        <v>0.68093749663180325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0.91355330858628825</v>
+      </c>
+      <c r="F27">
+        <v>23</v>
+      </c>
+      <c r="G27">
+        <v>18</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>0.44874251346174132</v>
+      </c>
+      <c r="K27">
+        <v>23</v>
+      </c>
+      <c r="L27">
+        <v>74</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="5"/>
+        <v>0.59230294633229685</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0.17177420648377417</v>
+      </c>
+      <c r="F28">
+        <v>24</v>
+      </c>
+      <c r="G28">
+        <v>17</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>0.62185448552434641</v>
+      </c>
+      <c r="K28">
+        <v>24</v>
+      </c>
+      <c r="L28">
+        <v>77</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="5"/>
+        <v>0.86982501991857897</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>Reject</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>1.7044362298927807E-2</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>23</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>Reject</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>4.2609542546874657E-2</v>
+      </c>
+      <c r="K29">
+        <v>25</v>
+      </c>
+      <c r="L29">
+        <v>81</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="5"/>
+        <v>0.74471787272753298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0.31131370283812299</v>
+      </c>
+      <c r="F30">
+        <v>26</v>
+      </c>
+      <c r="G30">
+        <v>19</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>0.3086584834373971</v>
+      </c>
+      <c r="K30">
+        <v>26</v>
+      </c>
+      <c r="L30">
+        <v>85</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="5"/>
+        <v>0.41870942353528884</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0.78219332576613221</v>
+      </c>
+      <c r="F31">
+        <v>27</v>
+      </c>
+      <c r="G31">
+        <v>15</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>0.96180277960104776</v>
+      </c>
+      <c r="K31">
+        <v>27</v>
+      </c>
+      <c r="L31">
+        <v>91</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="5"/>
+        <v>0.12799765621863335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0.78219332576613221</v>
+      </c>
+      <c r="F32">
+        <v>28</v>
+      </c>
+      <c r="G32">
+        <v>16</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>0.82208038092205715</v>
+      </c>
+      <c r="K32">
+        <v>28</v>
+      </c>
+      <c r="L32">
+        <v>86</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="5"/>
+        <v>0.35316523494211638</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>13</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>Reject</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>4.0138314415120391E-2</v>
+      </c>
+      <c r="F33">
+        <v>29</v>
+      </c>
+      <c r="G33">
+        <v>23</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>Reject</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>4.2609542546874657E-2</v>
+      </c>
+      <c r="K33">
+        <v>29</v>
+      </c>
+      <c r="L33">
+        <v>89</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="5"/>
+        <v>0.19855446062618531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0.78219332576613221</v>
+      </c>
+      <c r="F34">
+        <v>30</v>
+      </c>
+      <c r="G34">
+        <v>14</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>0.74483842310659454</v>
+      </c>
+      <c r="K34">
+        <v>30</v>
+      </c>
+      <c r="L34">
+        <v>76</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="5"/>
+        <v>0.7738725719869578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0.1733519536763494</v>
+      </c>
+      <c r="F35">
+        <v>31</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>Reject</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>1.4159386645760871E-2</v>
+      </c>
+      <c r="K35">
+        <v>31</v>
+      </c>
+      <c r="L35">
+        <v>86</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="5"/>
+        <v>0.35316523494211638</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0.91355330858628825</v>
+      </c>
+      <c r="F36">
+        <v>32</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>0.36979534050904161</v>
+      </c>
+      <c r="K36">
+        <v>32</v>
+      </c>
+      <c r="L36">
+        <v>70</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="5"/>
+        <v>0.2995478591757284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>0.51597163082450148</v>
+      </c>
+      <c r="F37">
+        <v>33</v>
+      </c>
+      <c r="G37">
+        <v>18</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>0.44874251346174132</v>
+      </c>
+      <c r="K37">
+        <v>33</v>
+      </c>
+      <c r="L37">
+        <v>76</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="5"/>
+        <v>0.7738725719869578</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0.51597163082450148</v>
+      </c>
+      <c r="F38">
+        <v>34</v>
+      </c>
+      <c r="G38">
+        <v>17</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>0.62185448552434641</v>
+      </c>
+      <c r="K38">
+        <v>34</v>
+      </c>
+      <c r="L38">
+        <v>71</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="5"/>
+        <v>0.36218151502541418</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>0.78219332576613221</v>
+      </c>
+      <c r="F39">
+        <v>35</v>
+      </c>
+      <c r="G39">
+        <v>17</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>0.62185448552434641</v>
+      </c>
+      <c r="K39">
+        <v>35</v>
+      </c>
+      <c r="L39">
+        <v>80</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="5"/>
+        <v>0.83846298895840565</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>0.78219332576613221</v>
+      </c>
+      <c r="F40">
+        <v>36</v>
+      </c>
+      <c r="G40">
+        <v>17</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>0.62185448552434641</v>
+      </c>
+      <c r="K40">
+        <v>36</v>
+      </c>
+      <c r="L40">
+        <v>76</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="5"/>
+        <v>0.7738725719869578</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>0.61165849616078438</v>
+      </c>
+      <c r="F41">
+        <v>37</v>
+      </c>
+      <c r="G41">
+        <v>11</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>0.23332230626673228</v>
+      </c>
+      <c r="K41">
+        <v>37</v>
+      </c>
+      <c r="L41">
+        <v>64</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="4"/>
+        <v>Reject</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="5"/>
+        <v>7.1051000787780344E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>Accept</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>0.31131370283812299</v>
+      </c>
+      <c r="F42">
+        <v>38</v>
+      </c>
+      <c r="G42">
+        <v>17</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>Accept</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>0.62185448552434641</v>
+      </c>
+      <c r="K42">
+        <v>38</v>
+      </c>
+      <c r="L42">
+        <v>83</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="4"/>
+        <v>Accept</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="5"/>
+        <v>0.57009213356706034</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C5:C42">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="reject">
+      <formula>NOT(ISERROR(SEARCH("reject",C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H42">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="reject">
+      <formula>NOT(ISERROR(SEARCH("reject",H5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M42">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="reject">
+      <formula>NOT(ISERROR(SEARCH("reject",M5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
